--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -753,7 +753,7 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -801,7 +801,7 @@
         <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
         <v>51</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX2" t="n">
         <v>9.5</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1499,16 +1499,16 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1535,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1547,25 +1547,25 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
         <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
@@ -1666,13 +1666,13 @@
         <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1708,13 +1708,13 @@
         <v>6</v>
       </c>
       <c r="X7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>9</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1735,16 +1735,16 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
@@ -1762,7 +1762,7 @@
         <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1792,7 +1792,7 @@
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1887,49 +1887,49 @@
         <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>6.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>21</v>
@@ -1941,10 +1941,10 @@
         <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
         <v>81</v>
@@ -1959,16 +1959,16 @@
         <v>2.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -2391,7 +2391,7 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>2.4</v>
@@ -2403,10 +2403,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2436,7 +2436,7 @@
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2454,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -2466,7 +2466,7 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>23</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2893,10 +2893,10 @@
         <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2955,16 +2955,16 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -2973,16 +2973,16 @@
         <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
@@ -2994,10 +2994,10 @@
         <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>7</v>
@@ -3009,19 +3009,19 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
         <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -3033,7 +3033,7 @@
         <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
@@ -3069,7 +3069,7 @@
         <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
         <v>201</v>
@@ -3143,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3301,7 +3301,7 @@
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
         <v>2.5</v>
@@ -3325,10 +3325,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3343,7 +3343,7 @@
         <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
         <v>9.5</v>
@@ -3352,7 +3352,7 @@
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>15</v>
@@ -3364,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3373,7 +3373,7 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH16" t="n">
         <v>13</v>
@@ -3382,13 +3382,13 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
@@ -3397,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>19</v>
@@ -3495,22 +3495,22 @@
         <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3659,46 +3659,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
         <v>2</v>
@@ -3707,13 +3707,13 @@
         <v>1.75</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>6.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>9</v>
@@ -3737,19 +3737,19 @@
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="n">
         <v>51</v>
@@ -3767,7 +3767,7 @@
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3776,13 +3776,13 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
         <v>8.5</v>
@@ -3800,7 +3800,7 @@
         <v>151</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC18" t="n">
         <v>126</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
         <v>2.25</v>
@@ -3865,10 +3865,10 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
         <v>1.7</v>
@@ -3883,16 +3883,16 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
         <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
@@ -3904,7 +3904,7 @@
         <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
@@ -3919,13 +3919,13 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH19" t="n">
         <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3973,7 +3973,7 @@
         <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>81</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
         <v>2.5</v>
@@ -4229,31 +4229,31 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
         <v>2.25</v>
       </c>
-      <c r="S21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
@@ -4274,13 +4274,13 @@
         <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
         <v>126</v>
@@ -4289,7 +4289,7 @@
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
@@ -4298,7 +4298,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
@@ -4322,7 +4322,7 @@
         <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4349,7 +4349,7 @@
         <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -750,10 +750,10 @@
         <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -795,7 +795,7 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
@@ -813,7 +813,7 @@
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -855,19 +855,19 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT2" t="n">
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -885,7 +885,7 @@
         <v>34</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1526,13 +1526,13 @@
         <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1556,7 +1556,7 @@
         <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
@@ -1577,16 +1577,16 @@
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1598,19 +1598,19 @@
         <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>81</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
@@ -1854,7 +1854,7 @@
         <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.11</v>
@@ -1869,10 +1869,10 @@
         <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
@@ -1914,7 +1914,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
@@ -1923,7 +1923,7 @@
         <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>10</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
@@ -1962,7 +1962,7 @@
         <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
         <v>4</v>
@@ -1974,7 +1974,7 @@
         <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
@@ -2072,7 +2072,7 @@
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -2102,10 +2102,10 @@
         <v>900</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>12</v>
@@ -2147,22 +2147,22 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2221,10 +2221,10 @@
         <v>11</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2233,10 +2233,10 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2263,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2290,10 +2290,10 @@
         <v>51</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL10" t="n">
         <v>101</v>
@@ -2403,10 +2403,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2421,10 +2421,10 @@
         <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -2445,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2454,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -2466,7 +2466,7 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
         <v>23</v>
@@ -2484,7 +2484,7 @@
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
         <v>9.5</v>
@@ -2502,7 +2502,7 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2570,10 +2570,10 @@
         <v>1.45</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -2585,10 +2585,10 @@
         <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2597,16 +2597,16 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
         <v>2.1</v>
@@ -2615,22 +2615,22 @@
         <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
         <v>6.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
         <v>10</v>
@@ -2645,7 +2645,7 @@
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
@@ -2678,13 +2678,13 @@
         <v>21</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>9.5</v>
@@ -2893,10 +2893,10 @@
         <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
         <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2973,16 +2973,16 @@
         <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
@@ -2991,13 +2991,13 @@
         <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>7</v>
@@ -3015,13 +3015,13 @@
         <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -3033,7 +3033,7 @@
         <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
@@ -3057,7 +3057,7 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
         <v>23</v>
@@ -3069,13 +3069,13 @@
         <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
         <v>201</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3313,22 +3313,22 @@
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3501,16 +3501,16 @@
         <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3659,19 +3659,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
@@ -3683,22 +3683,22 @@
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
         <v>2</v>
@@ -3707,13 +3707,13 @@
         <v>1.75</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
         <v>6.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
         <v>9</v>
@@ -3740,13 +3740,13 @@
         <v>401</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
         <v>81</v>
@@ -3767,7 +3767,7 @@
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3776,13 +3776,13 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
         <v>8.5</v>
@@ -3800,7 +3800,7 @@
         <v>151</v>
       </c>
       <c r="BB18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
         <v>126</v>
@@ -4205,19 +4205,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
@@ -4229,22 +4229,22 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U21" t="n">
         <v>1.57</v>
@@ -4253,7 +4253,7 @@
         <v>2.25</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
@@ -4289,7 +4289,7 @@
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
@@ -4298,7 +4298,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
@@ -4307,7 +4307,7 @@
         <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP21" t="n">
         <v>17</v>
@@ -4322,7 +4322,7 @@
         <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
         <v>7</v>
@@ -4349,7 +4349,7 @@
         <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,21 +704,11 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ChPCQjKt</t>
+          <t>KKku3143</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +718,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>U.N.A.M.- Pumas</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>2.57</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="V2" t="n">
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -743,13 +743,13 @@
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
         <v>2.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L2" t="n">
         <v>5.4</v>
@@ -764,13 +764,13 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>1.39</v>
@@ -779,16 +779,16 @@
         <v>2.57</v>
       </c>
       <c r="U2" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X2" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y2" t="n">
         <v>8</v>
@@ -818,7 +818,7 @@
         <v>600</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>35</v>
@@ -839,13 +839,13 @@
         <v>3.35</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>55</v>
@@ -854,7 +854,7 @@
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU2" t="n">
         <v>7.6</v>
@@ -863,10 +863,10 @@
         <v>70</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY2" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,7 +708,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KKku3143</t>
+          <t>G6qgIbdm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,166 +718,342 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.1</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W2" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KKku3143</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>24</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR3" t="n">
         <v>55</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS3" t="n">
         <v>250</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT3" t="n">
         <v>2.6</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU3" t="n">
         <v>7.6</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV3" t="n">
         <v>70</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW3" t="n">
         <v>7</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX3" t="n">
         <v>32</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY3" t="n">
         <v>35</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ3" t="n">
         <v>200</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA3" t="n">
         <v>200</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB3" t="n">
         <v>450</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -737,40 +737,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -779,34 +779,34 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
-        <v>13</v>
-      </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -818,10 +818,10 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -830,25 +830,25 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM2" t="n">
         <v>29</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -860,22 +860,22 @@
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>51</v>
       </c>
-      <c r="AW2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>67</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>81</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
@@ -934,7 +934,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,7 +708,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G6qgIbdm</t>
+          <t>OxKyCg3k</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,173 +718,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>Zira</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Araz</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>2.07</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>2.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>2.07</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>4.85</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI2" t="n">
         <v>23</v>
       </c>
-      <c r="AC2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>2.02</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KKku3143</t>
+          <t>G6qgIbdm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -894,166 +894,342 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KKku3143</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Persija Jakarta</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q4" t="n">
         <v>1.78</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R4" t="n">
         <v>1.93</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S4" t="n">
         <v>1.39</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T4" t="n">
         <v>2.57</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U4" t="n">
         <v>1.8</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V4" t="n">
         <v>1.8</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W4" t="n">
         <v>6.7</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X4" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y4" t="n">
         <v>8</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z4" t="n">
         <v>11</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA4" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB4" t="n">
         <v>26</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC4" t="n">
         <v>11</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE4" t="n">
         <v>16.5</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF4" t="n">
         <v>75</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG4" t="n">
         <v>600</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH4" t="n">
         <v>16</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI4" t="n">
         <v>35</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ4" t="n">
         <v>17.5</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK4" t="n">
         <v>110</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL4" t="n">
         <v>55</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM4" t="n">
         <v>55</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN4" t="n">
         <v>3.35</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP4" t="n">
         <v>17</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ4" t="n">
         <v>24</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR4" t="n">
         <v>55</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS4" t="n">
         <v>250</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT4" t="n">
         <v>2.6</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU4" t="n">
         <v>7.6</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV4" t="n">
         <v>70</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW4" t="n">
         <v>7</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX4" t="n">
         <v>32</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY4" t="n">
         <v>35</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ4" t="n">
         <v>200</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA4" t="n">
         <v>200</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB4" t="n">
         <v>450</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -913,28 +913,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -955,34 +955,34 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA3" t="n">
         <v>17</v>
       </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -994,34 +994,34 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>12</v>
       </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
       <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1042,16 +1042,16 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
         <v>67</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1089,40 +1089,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
         <v>5.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
         <v>1.39</v>
@@ -1131,91 +1131,91 @@
         <v>2.57</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
         <v>6.7</v>
       </c>
       <c r="X4" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>12.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="n">
         <v>17.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>55</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR4" t="n">
         <v>55</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AV4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AX4" t="n">
         <v>32</v>
@@ -1227,7 +1227,7 @@
         <v>200</v>
       </c>
       <c r="BA4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB4" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB4"/>
+  <dimension ref="A1:BB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -931,10 +931,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -943,10 +943,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -970,7 +970,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -979,7 +979,7 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -991,7 +991,7 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1006,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>
@@ -1015,7 +1015,7 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1039,7 +1039,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>17</v>
@@ -1089,46 +1089,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>7.7</v>
+        <v>9.44</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1137,28 +1137,28 @@
         <v>1.85</v>
       </c>
       <c r="W4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y4" t="n">
         <v>7.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1170,13 +1170,13 @@
         <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>120</v>
@@ -1191,31 +1191,31 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
         <v>55</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV4" t="n">
         <v>65</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>32</v>
@@ -1227,10 +1227,186 @@
         <v>200</v>
       </c>
       <c r="BA4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB4" t="n">
         <v>450</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hdhSltk1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LITHUANIA - A LYGA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hegelmann</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Transinvest</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -928,7 +928,7 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -955,22 +955,22 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -991,31 +991,31 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
       </c>
       <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM3" t="n">
         <v>34</v>
       </c>
-      <c r="AL3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1039,19 +1039,19 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1292,7 +1292,7 @@
         <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="Q5" t="n">
         <v>1.72</v>
@@ -1307,10 +1307,10 @@
         <v>2.52</v>
       </c>
       <c r="U5" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,16 +913,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -943,10 +943,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -970,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>26</v>
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1006,7 +1006,7 @@
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1021,7 +1021,7 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>81</v>
@@ -1060,7 +1060,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KKku3143</t>
+          <t>hdhSltk1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1070,342 +1070,166 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>LITHUANIA - A LYGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Persija Jakarta</t>
+          <t>Hegelmann</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Transinvest</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
         <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>9.44</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>3.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="W4" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="X4" t="n">
-        <v>7.6</v>
+        <v>11.25</v>
       </c>
       <c r="Y4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH4" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AI4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>60</v>
-      </c>
       <c r="AM4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>55</v>
       </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>27</v>
-      </c>
       <c r="AR4" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
         <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>4.35</v>
       </c>
       <c r="AX4" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>35</v>
+        <v>19.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="BB4" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>hdhSltk1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>LITHUANIA - A LYGA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Hegelmann</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Transinvest</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB5" t="n">
         <v>250</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB4"/>
+  <dimension ref="A1:BB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,16 +913,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -943,10 +943,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -964,10 +964,10 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -985,7 +985,7 @@
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -994,13 +994,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1033,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1042,7 +1042,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1231,6 +1231,182 @@
       </c>
       <c r="BB4" t="n">
         <v>250</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0bDmdOdR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LITHUANIA - A LYGA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Zalgiris</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Siauliai FA</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -737,73 +737,73 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J2" t="n">
         <v>2.77</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.67</v>
-      </c>
       <c r="K2" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="L2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="V2" t="n">
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="X2" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD2" t="n">
         <v>5.8</v>
@@ -818,58 +818,58 @@
         <v>700</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>90</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
         <v>3.55</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS2" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>110</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AX2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AY2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ2" t="n">
         <v>200</v>
@@ -913,16 +913,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -964,10 +964,10 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -985,7 +985,7 @@
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -994,13 +994,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1033,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1042,7 +1042,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -913,19 +913,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -964,10 +964,10 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>17</v>
@@ -976,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -994,13 +994,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1015,10 +1015,10 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -1042,7 +1042,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1089,13 +1089,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
         <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
@@ -1113,13 +1113,13 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
         <v>1.9</v>
@@ -1131,13 +1131,13 @@
         <v>2.52</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V4" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
         <v>11.25</v>
@@ -1149,13 +1149,13 @@
         <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1170,16 +1170,16 @@
         <v>250</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AI4" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="H2" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="I2" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="J2" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="K2" t="n">
         <v>1.78</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="M2" t="n">
         <v>1.15</v>
@@ -761,16 +761,16 @@
         <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -779,55 +779,55 @@
         <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AG2" t="n">
         <v>700</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
         <v>60</v>
@@ -836,16 +836,16 @@
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR2" t="n">
         <v>120</v>
@@ -857,16 +857,16 @@
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV2" t="n">
         <v>110</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AX2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
         <v>40</v>
@@ -1292,7 +1292,7 @@
         <v>1.12</v>
       </c>
       <c r="P5" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="Q5" t="n">
         <v>1.57</v>
@@ -1307,10 +1307,10 @@
         <v>2.45</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,136 +737,136 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.67</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.6</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
         <v>50</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG2" t="n">
         <v>700</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS2" t="n">
         <v>500</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>110</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AY2" t="n">
         <v>40</v>
@@ -884,7 +884,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G6qgIbdm</t>
+          <t>hdhSltk1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -894,173 +894,173 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>LITHUANIA - A LYGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>Hegelmann</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Transinvest</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL3" t="n">
         <v>15</v>
       </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AM3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX3" t="n">
         <v>12</v>
       </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>21</v>
-      </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hdhSltk1</t>
+          <t>0bDmdOdR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1080,332 +1080,156 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hegelmann</t>
+          <t>Zalgiris</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Transinvest</t>
+          <t>Siauliai FA</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.52</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L4" t="n">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>14.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>3.55</v>
+        <v>4.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T4" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="U4" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
-        <v>11.25</v>
+        <v>6.1</v>
       </c>
       <c r="Y4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU4" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.35</v>
+        <v>9.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AY4" t="n">
-        <v>19.5</v>
+        <v>45</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="BA4" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>0bDmdOdR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>LITHUANIA - A LYGA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Zalgiris</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Siauliai FA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>350</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB5" t="n">
         <v>500</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -740,16 +740,16 @@
         <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>5.2</v>
@@ -758,13 +758,13 @@
         <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="Q2" t="n">
         <v>2.67</v>
@@ -776,7 +776,7 @@
         <v>1.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>2.27</v>
@@ -785,7 +785,7 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="X2" t="n">
         <v>7.3</v>
@@ -794,19 +794,19 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE2" t="n">
         <v>22</v>
@@ -833,28 +833,28 @@
         <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ2" t="n">
         <v>45</v>
       </c>
       <c r="AR2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS2" t="n">
         <v>500</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB4"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,11 +704,21 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OxKyCg3k</t>
+          <t>x6ZsjhwA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,519 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Zira</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Araz</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>1.67</v>
       </c>
       <c r="J2" t="n">
-        <v>2.67</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>5.2</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>4.6</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>7.3</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU2" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>175</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX2" t="n">
         <v>9</v>
       </c>
-      <c r="AI2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>30</v>
-      </c>
       <c r="AY2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>hdhSltk1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>LITHUANIA - A LYGA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Hegelmann</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Transinvest</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0bDmdOdR</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LITHUANIA - A LYGA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Zalgiris</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Siauliai FA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>350</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>500</v>
+        <v>201</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x6ZsjhwA</t>
+          <t>CvGRMovR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
         <v>6</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
         <v>6</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI2" t="n">
         <v>12</v>
       </c>
-      <c r="X2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AJ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>51</v>
       </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>126</v>
-      </c>
       <c r="AR2" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CvGRMovR</t>
+          <t>x6ZsjhwA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,1447 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>1.67</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
+        <v>12</v>
+      </c>
+      <c r="X2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6.5</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
         <v>12</v>
       </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP2" t="n">
         <v>41</v>
       </c>
-      <c r="AC2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA2" t="n">
         <v>51</v>
       </c>
-      <c r="BA2" t="n">
-        <v>101</v>
-      </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4hyzhE8c</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
         <v>126</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CvGRMovR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hImLva0n</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>vZoTxwVb</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>693SK49D</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>t8FQHJjg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>z1uxyHaB</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1335,16 +1335,16 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1353,7 +1353,7 @@
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>26</v>
@@ -1362,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1377,22 +1377,22 @@
         <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1428,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>81</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1505,10 +1505,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1517,10 +1517,10 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1532,7 +1532,7 @@
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
@@ -1562,10 +1562,10 @@
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1583,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1595,10 +1595,10 @@
         <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>7</v>
@@ -1607,13 +1607,13 @@
         <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>301</v>
@@ -1857,10 +1857,10 @@
         <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1923,7 +1923,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1395,7 +1395,7 @@
         <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1422,16 +1422,16 @@
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1496,7 +1496,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -2051,10 +2051,10 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -762,13 +762,13 @@
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -798,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -1505,10 +1505,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1681,10 +1681,10 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
         <v>2.3</v>
@@ -1857,22 +1857,22 @@
         <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -2051,10 +2051,10 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -798,16 +798,16 @@
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -819,7 +819,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -837,37 +837,37 @@
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -876,13 +876,13 @@
         <v>3.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
@@ -1120,7 +1120,7 @@
         <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
@@ -1237,16 +1237,16 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hImLva0n</t>
+          <t>4hyqCUP8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
         <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vZoTxwVb</t>
+          <t>hImLva0n</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
         <v>11</v>
       </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
         <v>151</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>301</v>
-      </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>693SK49D</t>
+          <t>vZoTxwVb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,133 +1648,133 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.4</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
         <v>9.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1783,22 +1783,22 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t8FQHJjg</t>
+          <t>693SK49D</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,160 +1830,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.3</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.1</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
         <v>8</v>
       </c>
-      <c r="X8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY8" t="n">
         <v>23</v>
       </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AZ8" t="n">
         <v>41</v>
       </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>z1uxyHaB</t>
+          <t>t8FQHJjg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,162 +2012,344 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
         <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
       </c>
       <c r="W9" t="n">
         <v>8</v>
       </c>
       <c r="X9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
         <v>15</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
         <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="n">
         <v>19</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>29</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>67</v>
-      </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
         <v>81</v>
       </c>
       <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>z1uxyHaB</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
         <v>251</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC10" t="n">
         <v>126</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD10" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
@@ -762,7 +762,7 @@
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -795,13 +795,13 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
         <v>51</v>
@@ -831,7 +831,7 @@
         <v>5.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX2" t="n">
         <v>9.5</v>
@@ -1311,10 +1311,10 @@
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1678,7 +1678,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="J2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -789,25 +789,25 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="n">
         <v>51</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -819,10 +819,10 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
@@ -831,58 +831,58 @@
         <v>5.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT2" t="n">
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -1517,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
         <v>2.1</v>
@@ -1702,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W7" t="n">
         <v>6.5</v>
@@ -1884,7 +1884,7 @@
         <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W8" t="n">
         <v>9.5</v>
@@ -2347,7 +2347,7 @@
         <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -765,10 +765,10 @@
         <v>2.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -798,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -882,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CvGRMovR</t>
+          <t>E9gEzDwN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,65 +1092,65 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1159,31 +1159,31 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1192,43 +1192,43 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>34</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1237,34 +1237,34 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4hyqCUP8</t>
+          <t>CvGRMovR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,73 +1284,73 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>1.44</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>26</v>
@@ -1359,82 +1359,82 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
         <v>81</v>
       </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>67</v>
       </c>
-      <c r="AW5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hImLva0n</t>
+          <t>4hyqCUP8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
         <v>11</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
         <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vZoTxwVb</t>
+          <t>hImLva0n</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,160 +1648,160 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>12</v>
       </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
         <v>151</v>
       </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>301</v>
-      </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>693SK49D</t>
+          <t>vZoTxwVb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,133 +1830,133 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1965,22 +1965,22 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t8FQHJjg</t>
+          <t>693SK49D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,160 +2012,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.3</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.1</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI9" t="n">
         <v>8</v>
       </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY9" t="n">
         <v>23</v>
       </c>
-      <c r="AC9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AZ9" t="n">
         <v>41</v>
       </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>z1uxyHaB</t>
+          <t>t8FQHJjg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,162 +2194,344 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V10" t="n">
         <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
       </c>
       <c r="X10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
         <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
         <v>19</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>29</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>67</v>
-      </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
       </c>
       <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>z1uxyHaB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
         <v>251</v>
       </c>
-      <c r="BC10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD10" t="n">
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -747,34 +747,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>2.25</v>
@@ -789,10 +789,10 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
@@ -804,10 +804,10 @@
         <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -819,10 +819,10 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>17</v>
@@ -846,28 +846,28 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -876,7 +876,7 @@
         <v>3.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>
@@ -891,10 +891,10 @@
         <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1311,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1323,10 +1323,10 @@
         <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1699,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
         <v>2.1</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1863,16 +1863,16 @@
         <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1884,10 +1884,10 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
@@ -1896,10 +1896,10 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>29</v>
@@ -1908,16 +1908,16 @@
         <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH8" t="n">
         <v>13</v>
@@ -1926,28 +1926,28 @@
         <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
         <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1965,25 +1965,25 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
         <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J9" t="n">
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2045,16 +2045,16 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2063,13 +2063,13 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -2087,10 +2087,10 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2105,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>9</v>
@@ -2126,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="AP9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
         <v>101</v>
@@ -2135,7 +2135,7 @@
         <v>126</v>
       </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>
@@ -2150,16 +2150,16 @@
         <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2245,25 +2245,25 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>23</v>
@@ -2275,46 +2275,46 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
         <v>34</v>
       </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>126</v>
@@ -2323,28 +2323,28 @@
         <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>501</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -2433,19 +2433,19 @@
         <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
@@ -2454,28 +2454,28 @@
         <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>11</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>23</v>
@@ -2484,22 +2484,22 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
         <v>2.38</v>
@@ -2511,7 +2511,7 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX11" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hImLva0n</t>
+          <t>nH4Ie9uS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.25</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD7" t="n">
         <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vZoTxwVb</t>
+          <t>hImLva0n</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,160 +1830,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7</v>
-      </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13</v>
       </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
       </c>
       <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
         <v>151</v>
       </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
-      </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>693SK49D</t>
+          <t>vZoTxwVb</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,55 +2012,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.33</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.4</v>
       </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
@@ -2069,28 +2069,28 @@
         <v>1.73</v>
       </c>
       <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
       </c>
-      <c r="X9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2099,46 +2099,46 @@
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2147,25 +2147,25 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t8FQHJjg</t>
+          <t>693SK49D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,160 +2194,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
         <v>2.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.3</v>
       </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.67</v>
       </c>
-      <c r="V10" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX10" t="n">
         <v>10</v>
       </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>34</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="BA10" t="n">
         <v>51</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
         <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>z1uxyHaB</t>
+          <t>t8FQHJjg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,163 +2376,345 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Preston</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
         <v>7</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
         <v>7.5</v>
       </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
         <v>26</v>
       </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
+      <c r="AZ11" t="n">
         <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>z1uxyHaB</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x6ZsjhwA</t>
+          <t>4hyzhE8c</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,133 +738,133 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
         <v>5.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="AD2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" t="n">
-        <v>12</v>
-      </c>
-      <c r="X2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="n">
         <v>29</v>
       </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -873,34 +873,34 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4hyzhE8c</t>
+          <t>E9gEzDwN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,85 +920,85 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1007,82 +1007,82 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E9gEzDwN</t>
+          <t>CvGRMovR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,95 +1092,95 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.4</v>
       </c>
-      <c r="I4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.4</v>
-      </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N4" t="n">
         <v>6</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1192,43 +1192,43 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1237,34 +1237,34 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
         <v>126</v>
       </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
       <c r="BB4" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CvGRMovR</t>
+          <t>4hyqCUP8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,73 +1284,73 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
         <v>26</v>
@@ -1359,82 +1359,82 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH5" t="n">
         <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>126</v>
-      </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4hyqCUP8</t>
+          <t>nH4Ie9uS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>8</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
         <v>11</v>
       </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX6" t="n">
         <v>41</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AY6" t="n">
         <v>51</v>
       </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
+      <c r="AZ6" t="n">
         <v>251</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nH4Ie9uS</t>
+          <t>hImLva0n</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Stoke</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.36</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+      <c r="X7" t="n">
         <v>10</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="Y7" t="n">
         <v>9</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>13</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AF7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
         <v>26</v>
       </c>
-      <c r="AF7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>81</v>
       </c>
-      <c r="AW7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>301</v>
-      </c>
       <c r="BB7" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>400</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hImLva0n</t>
+          <t>vZoTxwVb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,160 +1830,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J8" t="n">
         <v>2.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AO8" t="n">
         <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
       </c>
       <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>126</v>
       </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="n">
         <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vZoTxwVb</t>
+          <t>693SK49D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,85 +2012,85 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.25</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.1</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
         <v>10</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2099,46 +2099,46 @@
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
         <v>15</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AL9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>29</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8</v>
-      </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2147,25 +2147,25 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>34</v>
       </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
+      <c r="BA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
         <v>126</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>151</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>693SK49D</t>
+          <t>t8FQHJjg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,160 +2194,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.8</v>
       </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.3</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.1</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
         <v>15</v>
       </c>
-      <c r="Z10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>41</v>
-      </c>
       <c r="AB10" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
         <v>26</v>
       </c>
-      <c r="AP10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
         <v>151</v>
       </c>
-      <c r="AS10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>201</v>
-      </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t8FQHJjg</t>
+          <t>z1uxyHaB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,344 +2376,162 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
         <v>11</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU11" t="n">
         <v>8.5</v>
       </c>
-      <c r="X11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
         <v>17</v>
       </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AY11" t="n">
         <v>29</v>
       </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AZ11" t="n">
         <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>67</v>
       </c>
       <c r="BA11" t="n">
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>z1uxyHaB</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Preston</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD12" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -971,16 +971,16 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -995,13 +995,13 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7</v>
       </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1028,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>9.5</v>
@@ -1049,16 +1049,16 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1067,10 +1067,10 @@
         <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CvGRMovR</t>
+          <t>4KqJ8W4k</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,122 +1092,122 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chico</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.2</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
         <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>4.33</v>
@@ -1216,43 +1216,43 @@
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4hyqCUP8</t>
+          <t>QmHRV26o</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1320,46 +1320,46 @@
         <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1371,46 +1371,46 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>900</v>
+        <v>401</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>12</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
       <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
         <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1419,19 +1419,19 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>251</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nH4Ie9uS</t>
+          <t>4hyqCUP8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
         <v>29</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
         <v>126</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>400</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hImLva0n</t>
+          <t>nH4Ie9uS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stoke</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>1.33</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>19</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD7" t="n">
         <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vZoTxwVb</t>
+          <t>t8FQHJjg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,160 +1830,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Coventry</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>29</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
         <v>10</v>
       </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AP8" t="n">
         <v>19</v>
       </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
       </c>
       <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
         <v>151</v>
       </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>301</v>
-      </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>693SK49D</t>
+          <t>z1uxyHaB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,526 +2012,162 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Preston</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
         <v>5.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>17</v>
       </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>29</v>
       </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>t8FQHJjg</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Luton</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>z1uxyHaB</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Preston</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD11" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4hyzhE8c</t>
+          <t>E9gEzDwN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,169 +738,169 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J2" t="n">
         <v>2.4</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.57</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>34</v>
       </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E9gEzDwN</t>
+          <t>bFzviYN3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,37 +920,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -971,25 +971,25 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -998,79 +998,79 @@
         <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>81</v>
       </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
         <v>81</v>
       </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>
@@ -1189,25 +1189,25 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
         <v>451</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>4.33</v>
@@ -1371,25 +1371,25 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
         <v>401</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>4.33</v>
@@ -1475,55 +1475,55 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>3.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1535,49 +1535,49 @@
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>900</v>
+        <v>7.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1589,10 +1589,10 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1604,7 +1604,7 @@
         <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1616,7 +1616,7 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1735,25 +1735,25 @@
         <v>101</v>
       </c>
       <c r="AG7" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="AK7" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
         <v>81</v>
       </c>
       <c r="AM7" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
         <v>3</v>
@@ -1804,370 +1804,6 @@
         <v>400</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>t8FQHJjg</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Luton</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>z1uxyHaB</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Preston</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sunderland</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,7 +1302,7 @@
         <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1404,7 +1404,7 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
@@ -1675,10 +1675,10 @@
         <v>9.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1805,6 +1805,734 @@
       </c>
       <c r="BD7" t="n">
         <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>b9mfwU3n</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Club America</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>rcDpJQIU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Atl. San Luis</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>11</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lbKyLnlI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>U.A.N.L.- Tigres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6ihZt8v3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Venados</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -783,31 +783,31 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,28 +816,28 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,16 +846,16 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -864,37 +864,37 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>
@@ -1666,46 +1666,46 @@
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
@@ -1723,13 +1723,13 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>101</v>
@@ -1738,13 +1738,13 @@
         <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="n">
         <v>81</v>
@@ -1756,13 +1756,13 @@
         <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO7" t="n">
         <v>6.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>19</v>
@@ -1774,7 +1774,7 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1792,10 +1792,10 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA7" t="n">
         <v>301</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>351</v>
       </c>
       <c r="BB7" t="n">
         <v>175</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>b9mfwU3n</t>
+          <t>GWfljm3k</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.75</v>
       </c>
-      <c r="R8" t="n">
-        <v>2.05</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>51</v>
       </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
       <c r="AM8" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
         <v>8.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" t="n">
         <v>29</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AY8" t="n">
         <v>41</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AZ8" t="n">
         <v>126</v>
       </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rcDpJQIU</t>
+          <t>OIZW04H7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>15</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
         <v>11</v>
       </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
         <v>10</v>
       </c>
-      <c r="Z9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AX9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC9" t="n">
         <v>126</v>
       </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="BD9" t="n">
         <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lbKyLnlI</t>
+          <t>b9mfwU3n</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,169 +2194,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>15</v>
       </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
       </c>
       <c r="AJ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
         <v>41</v>
       </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
       <c r="AM10" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
         <v>8.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
         <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD10" t="n">
         <v>126</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6ihZt8v3</t>
+          <t>rcDpJQIU</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,167 +2371,531 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Venados</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.25</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
       <c r="W11" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
         <v>23</v>
       </c>
-      <c r="AA11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>25</v>
-      </c>
       <c r="AC11" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
         <v>5</v>
       </c>
       <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lbKyLnlI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>U.A.N.L.- Tigres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6ihZt8v3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Venados</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="n">
         <v>16.5</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY13" t="n">
         <v>22</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ13" t="n">
         <v>75</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA13" t="n">
         <v>100</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB13" t="n">
         <v>250</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +747,55 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.57</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -807,13 +807,13 @@
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -852,22 +852,22 @@
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
         <v>4.33</v>
@@ -947,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -965,19 +965,19 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>17</v>
@@ -1043,10 +1043,10 @@
         <v>126</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4hyqCUP8</t>
+          <t>nH4Ie9uS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
         <v>7.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO6" t="n">
         <v>6</v>
       </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nH4Ie9uS</t>
+          <t>GWfljm3k</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,49 +1648,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>6.25</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,109 +1699,109 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI7" t="n">
         <v>19</v>
       </c>
-      <c r="AH7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AK7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GWfljm3k</t>
+          <t>OIZW04H7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,157 +1830,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.75</v>
       </c>
-      <c r="I8" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
         <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI8" t="n">
         <v>29</v>
       </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OIZW04H7</t>
+          <t>b9mfwU3n</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,170 +2002,170 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
         <v>5</v>
       </c>
-      <c r="I9" t="n">
-        <v>11</v>
-      </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
         <v>26</v>
       </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>51</v>
       </c>
-      <c r="AI9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>126</v>
-      </c>
       <c r="AK9" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>81</v>
       </c>
-      <c r="AW9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>251</v>
-      </c>
       <c r="BA9" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>b9mfwU3n</t>
+          <t>rcDpJQIU</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,169 +2194,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>23</v>
       </c>
       <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
         <v>12</v>
       </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH10" t="n">
         <v>15</v>
       </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO10" t="n">
         <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
         <v>41</v>
       </c>
-      <c r="AS10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="AW10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
         <v>51</v>
       </c>
-      <c r="AW10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA10" t="n">
+      <c r="BB10" t="n">
         <v>101</v>
       </c>
-      <c r="BB10" t="n">
-        <v>201</v>
-      </c>
       <c r="BC10" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rcDpJQIU</t>
+          <t>lbKyLnlI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,85 +2376,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>15</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>26</v>
-      </c>
       <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
         <v>19</v>
       </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
@@ -2463,46 +2463,46 @@
         <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI11" t="n">
         <v>15</v>
       </c>
-      <c r="AI11" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>126</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR11" t="n">
         <v>41</v>
       </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2511,25 +2511,25 @@
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lbKyLnlI</t>
+          <t>6ihZt8v3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,349 +2553,167 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6ihZt8v3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Venados</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X13" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -747,73 +747,73 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.53</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.62</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -825,10 +825,10 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -852,22 +852,22 @@
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -965,10 +965,10 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -977,19 +977,19 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1010,13 +1010,13 @@
         <v>6</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -1031,7 +1031,7 @@
         <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
@@ -1046,7 +1046,7 @@
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1058,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>
@@ -1159,16 +1159,16 @@
         <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1189,10 +1189,10 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>12</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
         <v>19</v>
@@ -1246,13 +1246,13 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1493,10 +1493,10 @@
         <v>9.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>2.2</v>
@@ -1699,16 +1699,16 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
@@ -1726,16 +1726,16 @@
         <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>29</v>
@@ -1753,7 +1753,7 @@
         <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AN7" t="n">
         <v>3.4</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1162,10 +1162,10 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
         <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>26</v>
@@ -1195,13 +1195,13 @@
         <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,7 +1210,7 @@
         <v>451</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1240,7 +1240,7 @@
         <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1249,7 +1249,7 @@
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1368,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
         <v>8</v>
@@ -1401,7 +1401,7 @@
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>81</v>
@@ -1681,10 +1681,10 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E9gEzDwN</t>
+          <t>bFzviYN3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,37 +738,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -789,25 +789,25 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,79 +816,79 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL2" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>81</v>
       </c>
-      <c r="AG2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA2" t="n">
         <v>81</v>
       </c>
-      <c r="AW2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>151</v>
-      </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bFzviYN3</t>
+          <t>4KqJ8W4k</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,164 +910,164 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.95</v>
       </c>
-      <c r="L3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>401</v>
       </c>
       <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4KqJ8W4k</t>
+          <t>QmHRV26o</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,37 +1102,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1141,31 +1141,31 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>26</v>
@@ -1174,10 +1174,10 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1186,28 +1186,28 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>13</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>11</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>29</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>26</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>451</v>
       </c>
       <c r="AN4" t="n">
         <v>4.5</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QmHRV26o</t>
+          <t>nH4Ie9uS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
         <v>8</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="AL5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR5" t="n">
         <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nH4Ie9uS</t>
+          <t>GWfljm3k</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>11</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
         <v>9</v>
       </c>
-      <c r="Z6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
         <v>29</v>
       </c>
-      <c r="AF6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
         <v>51</v>
       </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>81</v>
-      </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GWfljm3k</t>
+          <t>OIZW04H7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,154 +1648,154 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>29</v>
       </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>67</v>
-      </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="n">
-        <v>900</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OIZW04H7</t>
+          <t>b9mfwU3n</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="I8" t="n">
-        <v>11</v>
-      </c>
       <c r="J8" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
         <v>26</v>
       </c>
-      <c r="AF8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
         <v>51</v>
       </c>
-      <c r="AI8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>81</v>
-      </c>
       <c r="AL8" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>81</v>
       </c>
-      <c r="AW8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>251</v>
-      </c>
       <c r="BA8" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>b9mfwU3n</t>
+          <t>rcDpJQIU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,169 +2012,169 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
         <v>41</v>
       </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
+      <c r="AW9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
         <v>51</v>
       </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
+      <c r="BB9" t="n">
         <v>101</v>
       </c>
-      <c r="BB9" t="n">
-        <v>201</v>
-      </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rcDpJQIU</t>
+          <t>lbKyLnlI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,55 +2194,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
@@ -2251,28 +2251,28 @@
         <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>26</v>
-      </c>
       <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
         <v>19</v>
       </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
@@ -2281,46 +2281,46 @@
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>15</v>
       </c>
-      <c r="AI10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>26</v>
       </c>
-      <c r="AK10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ10" t="n">
+      <c r="AR10" t="n">
         <v>41</v>
       </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2329,25 +2329,25 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lbKyLnlI</t>
+          <t>6ihZt8v3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2371,349 +2371,167 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW11" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10</v>
-      </c>
-      <c r="X11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6ihZt8v3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Venados</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -762,25 +762,25 @@
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
         <v>1.53</v>
@@ -789,16 +789,16 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -837,13 +837,13 @@
         <v>9.5</v>
       </c>
       <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
         <v>19</v>
       </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>5.5</v>
@@ -885,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -980,13 +980,13 @@
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -995,22 +995,22 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1031,16 +1031,16 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -1129,10 +1129,10 @@
         <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1174,10 +1174,10 @@
         <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
@@ -1308,7 +1308,7 @@
         <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,28 +1323,28 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1362,10 +1362,10 @@
         <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
@@ -1374,7 +1374,7 @@
         <v>120</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1386,10 +1386,10 @@
         <v>126</v>
       </c>
       <c r="AL5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
         <v>3.1</v>
@@ -1407,13 +1407,13 @@
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1428,7 +1428,7 @@
         <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
         <v>251</v>
@@ -2227,10 +2227,10 @@
         <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
@@ -816,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX2" t="n">
         <v>12</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -977,10 +977,10 @@
         <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -989,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1013,13 +1013,13 @@
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>29</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>13</v>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>3.6</v>
@@ -1141,31 +1141,31 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
         <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>26</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nH4Ie9uS</t>
+          <t>GWfljm3k</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,49 +1284,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
         <v>10</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,76 +1335,76 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
         <v>9</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO5" t="n">
         <v>8</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
@@ -1413,31 +1413,31 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY5" t="n">
         <v>41</v>
       </c>
-      <c r="AY5" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GWfljm3k</t>
+          <t>OIZW04H7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,154 +1466,154 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OIZW04H7</t>
+          <t>b9mfwU3n</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
       <c r="J7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.8</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
         <v>26</v>
       </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
         <v>51</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>126</v>
-      </c>
       <c r="AL7" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>81</v>
       </c>
-      <c r="AW7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>251</v>
-      </c>
       <c r="BA7" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
         <v>126</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>b9mfwU3n</t>
+          <t>rcDpJQIU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,169 +1830,169 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
       </c>
       <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
         <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV8" t="n">
         <v>41</v>
       </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
+      <c r="AW8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
         <v>51</v>
       </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>101</v>
       </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rcDpJQIU</t>
+          <t>lbKyLnlI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,55 +2012,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
         <v>1.53</v>
@@ -2069,28 +2069,28 @@
         <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>15</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>26</v>
-      </c>
       <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
         <v>19</v>
       </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2102,43 +2102,43 @@
         <v>126</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>15</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
-      </c>
       <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>26</v>
       </c>
-      <c r="AL9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="n">
         <v>41</v>
       </c>
-      <c r="AR9" t="n">
-        <v>51</v>
-      </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2147,25 +2147,25 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lbKyLnlI</t>
+          <t>6ihZt8v3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2189,349 +2189,167 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>3.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>9.75</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL10" t="n">
         <v>26</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AS10" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6ihZt8v3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Venados</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -795,22 +795,22 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
         <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
@@ -828,13 +828,13 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -846,16 +846,16 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
         <v>126</v>
@@ -876,7 +876,7 @@
         <v>3.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
         <v>26</v>
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
@@ -1869,10 +1869,10 @@
         <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
         <v>1.3</v>
@@ -1887,7 +1887,7 @@
         <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
@@ -1920,7 +1920,7 @@
         <v>126</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
@@ -1971,7 +1971,7 @@
         <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -795,16 +795,16 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
         <v>41</v>
@@ -828,13 +828,13 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
         <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -849,13 +849,13 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
         <v>126</v>
@@ -894,13 +894,13 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4KqJ8W4k</t>
+          <t>GWfljm3k</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
         <v>51</v>
       </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
         <v>9</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QmHRV26o</t>
+          <t>OIZW04H7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>1.3</v>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.53</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
         <v>11</v>
       </c>
-      <c r="Z4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AY4" t="n">
         <v>51</v>
       </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AZ4" t="n">
         <v>251</v>
       </c>
-      <c r="AT4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GWfljm3k</t>
+          <t>b9mfwU3n</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.33</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>1.75</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>2</v>
       </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>15</v>
       </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>26</v>
       </c>
       <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
         <v>51</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AW5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
         <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OIZW04H7</t>
+          <t>rcDpJQIU</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="T6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="AO6" t="n">
         <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
         <v>41</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AW6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD6" t="n">
         <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b9mfwU3n</t>
+          <t>lbKyLnlI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,97 +1648,97 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
         <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
         <v>13</v>
       </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>26</v>
@@ -1750,67 +1750,67 @@
         <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
         <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
         <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rcDpJQIU</t>
+          <t>6ihZt8v3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1825,531 +1825,167 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH8" t="n">
         <v>10</v>
       </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>11</v>
       </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>4.05</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AR8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>401</v>
-      </c>
       <c r="BD8" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>lbKyLnlI</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>U.A.N.L.- Tigres</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>17</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6ihZt8v3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Venados</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bFzviYN3</t>
+          <t>GWfljm3k</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,95 +728,95 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="V2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="n">
         <v>9</v>
       </c>
-      <c r="X2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -825,46 +825,46 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -873,34 +873,34 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GWfljm3k</t>
+          <t>OIZW04H7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,154 +920,154 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>29</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OIZW04H7</t>
+          <t>b9mfwU3n</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
         <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>13</v>
       </c>
       <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
         <v>34</v>
       </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>26</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
       </c>
       <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD4" t="n">
         <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b9mfwU3n</t>
+          <t>rcDpJQIU</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,31 +1284,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1317,127 +1317,127 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
       </c>
       <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>13</v>
       </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
         <v>13</v>
       </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AY5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
         <v>51</v>
       </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>101</v>
       </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rcDpJQIU</t>
+          <t>lbKyLnlI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,55 +1466,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>U.A.N.L.- Tigres</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U6" t="n">
         <v>1.53</v>
@@ -1523,31 +1523,31 @@
         <v>2.38</v>
       </c>
       <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12</v>
       </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>19</v>
       </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>34</v>
@@ -1556,43 +1556,43 @@
         <v>126</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>15</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>23</v>
       </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>41</v>
       </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1601,25 +1601,25 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lbKyLnlI</t>
+          <t>6ihZt8v3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1643,349 +1643,167 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Venados</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>2.77</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>10.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP7" t="n">
         <v>19</v>
       </c>
-      <c r="AI7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AQ7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>351</v>
-      </c>
       <c r="BD7" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6ihZt8v3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Venados</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.3</v>
@@ -810,10 +810,10 @@
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -849,7 +849,7 @@
         <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -861,7 +861,7 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1077,734 +1077,6 @@
       </c>
       <c r="BD3" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>b9mfwU3n</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Club America</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>rcDpJQIU</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Necaxa</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Atl. San Luis</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W5" t="n">
-        <v>12</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>lbKyLnlI</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>U.A.N.L.- Tigres</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6ihZt8v3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>06/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Venados</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GWfljm3k</t>
+          <t>x6ZsjhwA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,95 +728,95 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.67</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -825,46 +825,46 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL2" t="n">
         <v>17</v>
       </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP2" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -873,34 +873,34 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="BA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC2" t="n">
         <v>151</v>
       </c>
-      <c r="BB2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OIZW04H7</t>
+          <t>4hyzhE8c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,164 +910,164 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.29</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>9.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
         <v>5.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10</v>
-      </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
         <v>21</v>
       </c>
-      <c r="AI3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>51</v>
-      </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1077,6 +1077,3464 @@
       </c>
       <c r="BD3" t="n">
         <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>E9gEzDwN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bFzviYN3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4KqJ8W4k</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>QmHRV26o</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CvGRMovR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4hyqCUP8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Alianza</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nH4Ie9uS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GWfljm3k</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OIZW04H7</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Patriotas</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hImLva0n</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>vZoTxwVb</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>693SK49D</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>t8FQHJjg</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>z1uxyHaB</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ChPCQjKt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>00:05</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>U.N.A.M.- Pumas</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>b9mfwU3n</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Club America</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>rcDpJQIU</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Atl. San Luis</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W20" t="n">
+        <v>12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>lbKyLnlI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>U.A.N.L.- Tigres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W21" t="n">
+        <v>10</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6ihZt8v3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Venados</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X22" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
